--- a/Balance.xlsx
+++ b/Balance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="532">
   <si>
     <t>Ingresos operacionales</t>
   </si>
@@ -6718,38 +6718,93 @@
       <c r="B10" s="312">
         <v>41990</v>
       </c>
-      <c r="C10" s="233"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="206"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="233"/>
-      <c r="O10" s="206"/>
-      <c r="P10" s="206"/>
-      <c r="Q10" s="208"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="167"/>
-      <c r="AE10" s="65"/>
+      <c r="C10" s="233" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10" s="233" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" s="206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P10" s="206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" s="208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R10" s="67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" s="67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T10" s="67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U10" s="67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" s="67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X10" s="67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y10" s="67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z10" s="67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA10" s="67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB10" s="67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC10" s="67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD10" s="167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE10" s="65" t="s">
+        <v>531</v>
+      </c>
       <c r="AK10" s="216">
         <v>5</v>
       </c>
@@ -35111,7 +35166,100 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="D1" t="n">
+        <v>41990.75013217593</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Balance.xlsx
+++ b/Balance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="533">
   <si>
     <t>Ingresos operacionales</t>
   </si>
@@ -1627,6 +1627,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>asdasdasd</t>
   </si>
 </sst>
 </file>
@@ -6770,7 +6773,7 @@
         <v>0.0</v>
       </c>
       <c r="T10" s="67" t="n">
-        <v>0.0</v>
+        <v>123.0</v>
       </c>
       <c r="U10" s="67" t="n">
         <v>0.0</v>
@@ -6815,38 +6818,93 @@
       <c r="B11" s="312">
         <v>41991</v>
       </c>
-      <c r="C11" s="233"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="233"/>
-      <c r="O11" s="206"/>
-      <c r="P11" s="206"/>
-      <c r="Q11" s="208"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="167"/>
-      <c r="AE11" s="256"/>
+      <c r="C11" s="233" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="206" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="206" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="206" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="206" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N11" s="233" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O11" s="206" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P11" s="206" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q11" s="208" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R11" s="67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S11" s="67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T11" s="67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U11" s="67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V11" s="67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W11" s="67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X11" s="67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y11" s="67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z11" s="67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA11" s="67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB11" s="67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC11" s="67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD11" s="167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE11" s="256" t="s">
+        <v>532</v>
+      </c>
       <c r="AF11" s="128"/>
       <c r="AK11" s="226" t="s">
         <v>527</v>
@@ -39702,13 +39760,97 @@
       <c r="P157" s="53"/>
       <c r="Q157" s="59"/>
     </row>
-    <row r="158" spans="12:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L158" s="101"/>
-      <c r="M158" s="102"/>
-      <c r="N158" s="102"/>
-      <c r="O158" s="102"/>
-      <c r="P158" s="102"/>
-      <c r="Q158" s="103"/>
+    <row r="158">
+      <c r="E158" t="n">
+        <v>41990.763643356484</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH158" t="s">
+        <v>531</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
